--- a/Candidacy-Streamlit-Repo/performance-wrs-a.xlsx
+++ b/Candidacy-Streamlit-Repo/performance-wrs-a.xlsx
@@ -450,28 +450,28 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>0.874071038251366</v>
+        <v>0.7593989071038252</v>
       </c>
       <c r="D2">
-        <v>0.827814784474932</v>
+        <v>0.707074990093247</v>
       </c>
       <c r="E2">
-        <v>0.9165786040556236</v>
+        <v>0.8117813694304328</v>
       </c>
       <c r="F2">
-        <v>0.9366666666666666</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="G2">
-        <v>0.8114754098360656</v>
+        <v>0.6721311475409836</v>
       </c>
       <c r="H2">
-        <v>0.9243421052631579</v>
+        <v>0.8639455782312925</v>
       </c>
       <c r="I2">
-        <v>0.9366666666666666</v>
+        <v>0.8466666666666667</v>
       </c>
       <c r="J2">
-        <v>0.9304635761589404</v>
+        <v>0.8552188552188552</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -482,28 +482,28 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.9527049180327869</v>
+        <v>0.7140983606557377</v>
       </c>
       <c r="D3">
-        <v>0.9259113058452069</v>
+        <v>0.6635254331778327</v>
       </c>
       <c r="E3">
-        <v>0.9764187523332668</v>
+        <v>0.7656883460930433</v>
       </c>
       <c r="F3">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="G3">
-        <v>0.9754098360655737</v>
+        <v>0.5081967213114754</v>
       </c>
       <c r="H3">
-        <v>0.9893617021276596</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="I3">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="J3">
-        <v>0.9587628865979382</v>
+        <v>0.8679245283018868</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -514,28 +514,28 @@
         <v>11</v>
       </c>
       <c r="C4">
-        <v>0.7316120218579235</v>
+        <v>0.7739890710382513</v>
       </c>
       <c r="D4">
-        <v>0.6795151635422907</v>
+        <v>0.7231135310556935</v>
       </c>
       <c r="E4">
-        <v>0.7837213270103782</v>
+        <v>0.8249246581455041</v>
       </c>
       <c r="F4">
-        <v>0.8566666666666667</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="G4">
-        <v>0.6065573770491803</v>
+        <v>0.7213114754098361</v>
       </c>
       <c r="H4">
-        <v>0.8426229508196721</v>
+        <v>0.8794326241134752</v>
       </c>
       <c r="I4">
-        <v>0.8566666666666667</v>
+        <v>0.8266666666666667</v>
       </c>
       <c r="J4">
-        <v>0.8495867768595041</v>
+        <v>0.852233676975945</v>
       </c>
     </row>
   </sheetData>
